--- a/biology/Botanique/Weigela/Weigela.xlsx
+++ b/biology/Botanique/Weigela/Weigela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Weigela (ou Weigelia) regroupe une dizaine d'espèces d'arbustes originaires d'Extrême-Orient[1], de la famille des Caprifoliacées selon la classification classique, ou des Diervillacées selon la classification phylogénétique. Plusieurs sont cultivées comme plantes ornementales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Weigela (ou Weigelia) regroupe une dizaine d'espèces d'arbustes originaires d'Extrême-Orient, de la famille des Caprifoliacées selon la classification classique, ou des Diervillacées selon la classification phylogénétique. Plusieurs sont cultivées comme plantes ornementales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces du genre Weigela sont originaires d'Extrême-Orient. Plusieurs espèces ont été introduites en Europe à la fin du XIXème  siècle. Le nom de Weigel provient de C.E. von Weigel (1748-1831) professeur de botanique, chimie, mineralogie et pharmacie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces du genre Weigela sont originaires d'Extrême-Orient. Plusieurs espèces ont été introduites en Europe à la fin du XIXème  siècle. Le nom de Weigel provient de C.E. von Weigel (1748-1831) professeur de botanique, chimie, mineralogie et pharmacie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 juill. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 juill. 2010) :
 Weigela coraeensis
 Weigela decora
 Weigela florida
@@ -556,7 +572,7 @@
 Weigela sinica
 Weigela subsessilis
 Weigela toensis
-Selon ITIS      (23 juill. 2010)[4] :
+Selon ITIS      (23 juill. 2010) :
 Weigela floribunda (Sieb. &amp; Zucc.) K. Koch
 Weigela florida (Bunge) A. DC.</t>
         </is>
@@ -586,11 +602,13 @@
           <t>Description et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Weigela est un arbuste à fleurs blanches, roses ou rouges. Les espèces du genre Weigela sont allogames à fécondation entomophile et incapables de se croiser avec d'autres espèces des genres voisins présents en France. Ce sont des espèces pérennes se multipliant spontanément par graines dans la nature. Les genres voisins sont les viornes (Viburnum) et les chèvrefeuilles (Lonicera)
-Les variétés cultivées comme plantes ornementales sont multipliées végétativement par bouturage[2].
-Les Weigelas s'adaptent à de nombreuses conditions pédoclimatiques et ne possèdent pas de bio-agresseurs en France. Ils sont maintenant très appréciés des entreprises d'espaces verts et des jardiniers amateurs. Ils font partie des dix espèces d'arbustes à fleurs les plus cultivées[2].
+Les variétés cultivées comme plantes ornementales sont multipliées végétativement par bouturage.
+Les Weigelas s'adaptent à de nombreuses conditions pédoclimatiques et ne possèdent pas de bio-agresseurs en France. Ils sont maintenant très appréciés des entreprises d'espaces verts et des jardiniers amateurs. Ils font partie des dix espèces d'arbustes à fleurs les plus cultivées.
 </t>
         </is>
       </c>
